--- a/results/BWW/BWW-no-quals-analysis.xlsx
+++ b/results/BWW/BWW-no-quals-analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>AYJ94IXY9F0HR</t>
   </si>
@@ -149,6 +149,12 @@
   <si>
     <t>Non-binding Property</t>
   </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
+  </si>
 </sst>
 </file>
 
@@ -208,8 +214,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,11 +245,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW33"/>
+  <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z32:Z33"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32:Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5653,6 +5695,10 @@
         <v>15</v>
       </c>
       <c r="AV30" s="1">
+        <f>AVERAGE(AV2:AV29)</f>
+        <v>7.6785714285714288</v>
+      </c>
+      <c r="AW30">
         <f>AVERAGE(AV2:AV29)/16</f>
         <v>0.4799107142857143</v>
       </c>
@@ -5752,15 +5798,27 @@
         <f>COUNTIF(D30:AM31,"&lt;5")</f>
         <v>10</v>
       </c>
+      <c r="Y32" t="s">
+        <v>43</v>
+      </c>
       <c r="Z32" s="1">
         <f>COUNTIF(Z30:AU30,"&gt;=18")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="26:26">
+    <row r="33" spans="25:26">
       <c r="Z33" s="1">
         <f>COUNTIF(Z30:AU30,"&gt;=22")</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="25:26">
+      <c r="Y34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34">
+        <f>COUNTIF(Z30:AU30,"&gt;=19")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
